--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$103</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3671" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3978" uniqueCount="657">
   <si>
     <t>Property</t>
   </si>
@@ -964,6 +964,9 @@
     <t>Observation.code.coding</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>value:code}
 value:system}</t>
   </si>
@@ -1022,6 +1025,39 @@
     <t>Observation.code.coding.userSelected</t>
   </si>
   <si>
+    <t>Observation.code.coding:ResRateSNOMEDCode</t>
+  </si>
+  <si>
+    <t>ResRateSNOMEDCode</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:ResRateSNOMEDCode.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:ResRateSNOMEDCode.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:ResRateSNOMEDCode.system</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:ResRateSNOMEDCode.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:ResRateSNOMEDCode.code</t>
+  </si>
+  <si>
+    <t>431314004</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:ResRateSNOMEDCode.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:ResRateSNOMEDCode.userSelected</t>
+  </si>
+  <si>
     <t>Observation.code.text</t>
   </si>
   <si>
@@ -1194,7 +1230,7 @@
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:resolve()}
+    <t xml:space="preserve">type:type}
 </t>
   </si>
   <si>
@@ -2342,7 +2378,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP95"/>
+  <dimension ref="A1:AP103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2351,9 +2387,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.8359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.49609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.80859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.46875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -6139,7 +6175,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
@@ -6203,7 +6239,7 @@
         <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
@@ -6248,13 +6284,13 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>304</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>80</v>
@@ -6372,10 +6408,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6490,10 +6526,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6610,10 +6646,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6655,7 +6691,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>80</v>
@@ -6732,10 +6768,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6852,10 +6888,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6895,7 +6931,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>80</v>
@@ -6972,10 +7008,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7092,10 +7128,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7214,18 +7250,20 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>91</v>
@@ -7240,19 +7278,19 @@
         <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>280</v>
+        <v>222</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>281</v>
+        <v>223</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>282</v>
+        <v>224</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>283</v>
+        <v>225</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -7301,13 +7339,13 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>284</v>
+        <v>226</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
@@ -7322,10 +7360,10 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>285</v>
+        <v>227</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>286</v>
+        <v>228</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -7336,10 +7374,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7347,35 +7385,31 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>326</v>
+        <v>208</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>327</v>
+        <v>209</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -7423,7 +7457,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>325</v>
+        <v>211</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7435,22 +7469,22 @@
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>333</v>
+        <v>212</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>80</v>
@@ -7458,21 +7492,21 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
@@ -7481,19 +7515,19 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>336</v>
+        <v>136</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>215</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>338</v>
+        <v>216</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>339</v>
+        <v>151</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7531,19 +7565,19 @@
         <v>80</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>335</v>
+        <v>218</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7555,7 +7589,7 @@
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
@@ -7564,13 +7598,13 @@
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>340</v>
+        <v>212</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>80</v>
@@ -7578,18 +7612,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>91</v>
@@ -7604,26 +7638,26 @@
         <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>343</v>
+        <v>105</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
+        <v>235</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>345</v>
+        <v>236</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>346</v>
+        <v>237</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>347</v>
+        <v>238</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>80</v>
@@ -7665,7 +7699,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>341</v>
+        <v>240</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7680,19 +7714,19 @@
         <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>349</v>
+        <v>241</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>350</v>
+        <v>242</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>80</v>
@@ -7700,24 +7734,24 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>80</v>
@@ -7726,20 +7760,18 @@
         <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>354</v>
+        <v>208</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
+        <v>245</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>356</v>
+        <v>246</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7787,7 +7819,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>352</v>
+        <v>248</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7796,25 +7828,25 @@
         <v>91</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>360</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>361</v>
+        <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>362</v>
+        <v>249</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>363</v>
+        <v>250</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>80</v>
@@ -7822,10 +7854,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>365</v>
+        <v>319</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7833,7 +7865,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>91</v>
@@ -7848,24 +7880,24 @@
         <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>366</v>
+        <v>111</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>367</v>
+        <v>253</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>80</v>
+        <v>333</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>80</v>
@@ -7907,7 +7939,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>365</v>
+        <v>257</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7928,13 +7960,13 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>370</v>
+        <v>258</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>371</v>
+        <v>259</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>80</v>
@@ -7942,10 +7974,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>373</v>
+        <v>322</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7956,7 +7988,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
@@ -7968,17 +8000,17 @@
         <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>374</v>
+        <v>208</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>375</v>
+        <v>262</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>376</v>
+        <v>263</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>377</v>
+        <v>264</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -8015,23 +8047,25 @@
         <v>80</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AC47" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>373</v>
+        <v>265</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>80</v>
@@ -8040,19 +8074,19 @@
         <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>380</v>
+        <v>266</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>381</v>
+        <v>267</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>382</v>
+        <v>80</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>80</v>
@@ -8060,14 +8094,12 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
         <v>80</v>
       </c>
@@ -8076,7 +8108,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -8088,17 +8120,19 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>385</v>
+        <v>270</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>375</v>
+        <v>271</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="O48" t="s" s="2">
-        <v>377</v>
+        <v>274</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -8147,13 +8181,13 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>373</v>
+        <v>275</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
@@ -8162,19 +8196,19 @@
         <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>380</v>
+        <v>276</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>381</v>
+        <v>277</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>382</v>
+        <v>80</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>80</v>
@@ -8182,14 +8216,12 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>80</v>
       </c>
@@ -8198,7 +8230,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -8210,17 +8242,19 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>388</v>
+        <v>208</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>375</v>
+        <v>280</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O49" t="s" s="2">
-        <v>377</v>
+        <v>283</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -8269,13 +8303,13 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>373</v>
+        <v>284</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>80</v>
@@ -8284,19 +8318,19 @@
         <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>380</v>
+        <v>285</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>381</v>
+        <v>286</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>382</v>
+        <v>80</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>80</v>
@@ -8304,10 +8338,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>389</v>
+        <v>337</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>389</v>
+        <v>337</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8315,7 +8349,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>91</v>
@@ -8330,19 +8364,19 @@
         <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>391</v>
+        <v>339</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>392</v>
+        <v>341</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>393</v>
+        <v>342</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8379,17 +8413,19 @@
         <v>80</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AC50" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>395</v>
+        <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>389</v>
+        <v>337</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8398,40 +8434,38 @@
         <v>91</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>80</v>
+        <v>343</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>398</v>
+        <v>344</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>399</v>
+        <v>345</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>80</v>
+        <v>346</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>400</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>347</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8440,10 +8474,10 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>80</v>
@@ -8452,20 +8486,18 @@
         <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>390</v>
+        <v>348</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>391</v>
+        <v>349</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>391</v>
+        <v>350</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8513,16 +8545,16 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>389</v>
+        <v>347</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>103</v>
@@ -8531,31 +8563,31 @@
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>398</v>
+        <v>298</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>80</v>
+        <v>346</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>400</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>403</v>
+        <v>353</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>404</v>
+        <v>353</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8571,19 +8603,23 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>208</v>
+        <v>355</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>209</v>
+        <v>356</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8631,7 +8667,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>211</v>
+        <v>353</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8643,22 +8679,22 @@
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>212</v>
+        <v>362</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>80</v>
@@ -8666,44 +8702,46 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>406</v>
+        <v>364</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>148</v>
+        <v>365</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>136</v>
+        <v>366</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>215</v>
+        <v>367</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>216</v>
+        <v>368</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8739,46 +8777,46 @@
         <v>80</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>218</v>
+        <v>364</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>142</v>
+        <v>372</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>80</v>
+        <v>374</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>212</v>
+        <v>375</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>80</v>
@@ -8786,10 +8824,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>377</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>408</v>
+        <v>377</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8797,13 +8835,13 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>80</v>
@@ -8812,20 +8850,18 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8873,7 +8909,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8894,13 +8930,13 @@
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>415</v>
+        <v>382</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>80</v>
@@ -8908,10 +8944,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8922,36 +8958,34 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>111</v>
+        <v>386</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q55" t="s" s="2">
-        <v>422</v>
-      </c>
+      <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8971,37 +9005,35 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>423</v>
+        <v>80</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>424</v>
+        <v>80</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>425</v>
+        <v>385</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
@@ -9010,19 +9042,19 @@
         <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>427</v>
+        <v>393</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>80</v>
@@ -9030,24 +9062,26 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>80</v>
@@ -9056,17 +9090,17 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>208</v>
+        <v>397</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>430</v>
+        <v>387</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>431</v>
+        <v>388</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>432</v>
+        <v>389</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -9115,13 +9149,13 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>433</v>
+        <v>385</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
@@ -9130,19 +9164,19 @@
         <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>435</v>
+        <v>393</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>80</v>
@@ -9150,24 +9184,26 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>80</v>
@@ -9176,24 +9212,24 @@
         <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>105</v>
+        <v>400</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>439</v>
+        <v>388</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>440</v>
+        <v>389</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>441</v>
+        <v>80</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>80</v>
@@ -9235,34 +9271,34 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>442</v>
+        <v>385</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>443</v>
+        <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>444</v>
+        <v>393</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>80</v>
@@ -9270,10 +9306,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>445</v>
+        <v>401</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>446</v>
+        <v>401</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9281,7 +9317,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>91</v>
@@ -9296,26 +9332,26 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>111</v>
+        <v>402</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>448</v>
+        <v>404</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>449</v>
+        <v>405</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>80</v>
@@ -9345,19 +9381,17 @@
         <v>80</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>80</v>
+        <v>407</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -9366,7 +9400,7 @@
         <v>91</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>103</v>
@@ -9375,29 +9409,31 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>80</v>
+        <v>409</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>452</v>
+        <v>411</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>453</v>
+        <v>413</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>80</v>
       </c>
@@ -9415,22 +9451,22 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>194</v>
+        <v>402</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>454</v>
+        <v>403</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>455</v>
+        <v>403</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>456</v>
+        <v>404</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>457</v>
+        <v>405</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9455,13 +9491,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>458</v>
+        <v>80</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>459</v>
+        <v>80</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -9479,7 +9515,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>453</v>
+        <v>401</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9488,7 +9524,7 @@
         <v>91</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>460</v>
+        <v>408</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>103</v>
@@ -9497,38 +9533,38 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>80</v>
+        <v>409</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>134</v>
+        <v>410</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>461</v>
+        <v>411</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>462</v>
+        <v>415</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>462</v>
+        <v>416</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>463</v>
+        <v>80</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -9540,20 +9576,16 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>464</v>
+        <v>209</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9577,13 +9609,13 @@
         <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>468</v>
+        <v>80</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>469</v>
+        <v>80</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
@@ -9601,49 +9633,49 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>462</v>
+        <v>211</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>470</v>
+        <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>471</v>
+        <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>472</v>
+        <v>212</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>473</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>474</v>
+        <v>417</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>474</v>
+        <v>418</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9662,20 +9694,18 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>475</v>
+        <v>136</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>476</v>
+        <v>215</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>477</v>
+        <v>216</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9711,19 +9741,19 @@
         <v>80</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>474</v>
+        <v>218</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9735,7 +9765,7 @@
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
@@ -9744,10 +9774,10 @@
         <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>481</v>
+        <v>212</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
@@ -9758,10 +9788,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>482</v>
+        <v>419</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>482</v>
+        <v>420</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9769,31 +9799,35 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>208</v>
+        <v>421</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>209</v>
+        <v>422</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9841,7 +9875,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>211</v>
+        <v>426</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9853,7 +9887,7 @@
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
@@ -9862,10 +9896,10 @@
         <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>80</v>
+        <v>427</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>212</v>
+        <v>428</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
@@ -9876,48 +9910,50 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>483</v>
+        <v>429</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>483</v>
+        <v>430</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>215</v>
+        <v>431</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="R63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9937,43 +9973,43 @@
         <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>80</v>
+        <v>435</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>80</v>
+        <v>436</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>218</v>
+        <v>437</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
@@ -9982,10 +10018,10 @@
         <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>80</v>
+        <v>438</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>212</v>
+        <v>439</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9996,10 +10032,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>484</v>
+        <v>440</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>484</v>
+        <v>441</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10007,13 +10043,13 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>80</v>
@@ -10022,18 +10058,18 @@
         <v>92</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>485</v>
+        <v>208</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>486</v>
+        <v>442</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -10081,7 +10117,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>489</v>
+        <v>445</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -10102,10 +10138,10 @@
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>134</v>
+        <v>446</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -10116,10 +10152,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>491</v>
+        <v>448</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>491</v>
+        <v>449</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10127,13 +10163,13 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>80</v>
@@ -10142,22 +10178,24 @@
         <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>492</v>
+        <v>105</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>493</v>
+        <v>450</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>494</v>
+        <v>451</v>
       </c>
       <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
-        <v>80</v>
+        <v>453</v>
       </c>
       <c r="S65" t="s" s="2">
         <v>80</v>
@@ -10199,7 +10237,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>495</v>
+        <v>454</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -10208,7 +10246,7 @@
         <v>91</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>80</v>
+        <v>455</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>103</v>
@@ -10220,10 +10258,10 @@
         <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>134</v>
+        <v>446</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>496</v>
+        <v>456</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>80</v>
@@ -10234,10 +10272,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>497</v>
+        <v>457</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>497</v>
+        <v>458</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10251,7 +10289,7 @@
         <v>91</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>80</v>
@@ -10260,22 +10298,26 @@
         <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>498</v>
+        <v>111</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>80</v>
+        <v>462</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>80</v>
@@ -10317,10 +10359,10 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>501</v>
+        <v>463</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>91</v>
@@ -10338,10 +10380,10 @@
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>134</v>
+        <v>446</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>502</v>
+        <v>464</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -10352,10 +10394,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>503</v>
+        <v>465</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>503</v>
+        <v>465</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10369,7 +10411,7 @@
         <v>91</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>80</v>
@@ -10381,15 +10423,17 @@
         <v>194</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>504</v>
+        <v>466</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>505</v>
+        <v>467</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
       </c>
@@ -10413,13 +10457,13 @@
         <v>80</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>507</v>
+        <v>293</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>508</v>
+        <v>470</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>509</v>
+        <v>471</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>80</v>
@@ -10437,7 +10481,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>503</v>
+        <v>465</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10446,7 +10490,7 @@
         <v>91</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>80</v>
+        <v>472</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>103</v>
@@ -10455,38 +10499,38 @@
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>510</v>
+        <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>511</v>
+        <v>134</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>512</v>
+        <v>473</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>513</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>514</v>
+        <v>474</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>514</v>
+        <v>474</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>80</v>
+        <v>475</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>80</v>
@@ -10498,16 +10542,20 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>209</v>
+        <v>476</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10531,13 +10579,13 @@
         <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>80</v>
+        <v>481</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
@@ -10555,49 +10603,49 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>211</v>
+        <v>474</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>80</v>
+        <v>482</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>80</v>
+        <v>483</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>212</v>
+        <v>484</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>80</v>
+        <v>485</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>515</v>
+        <v>486</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>515</v>
+        <v>486</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10616,18 +10664,20 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>136</v>
+        <v>487</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>215</v>
+        <v>488</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>216</v>
+        <v>489</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10663,19 +10713,19 @@
         <v>80</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>218</v>
+        <v>486</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10687,7 +10737,7 @@
         <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>80</v>
@@ -10696,10 +10746,10 @@
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>80</v>
+        <v>492</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>212</v>
+        <v>493</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10710,10 +10760,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10733,23 +10783,19 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10797,19 +10843,19 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>80</v>
@@ -10818,10 +10864,10 @@
         <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10832,21 +10878,21 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>80</v>
@@ -10855,23 +10901,21 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>208</v>
+        <v>136</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>281</v>
+        <v>216</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10907,31 +10951,31 @@
         <v>80</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>284</v>
+        <v>218</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>80</v>
@@ -10940,10 +10984,10 @@
         <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>286</v>
+        <v>212</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10954,10 +10998,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10968,7 +11012,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
@@ -10977,23 +11021,21 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>194</v>
+        <v>497</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
       </c>
@@ -11017,13 +11059,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>507</v>
+        <v>80</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>523</v>
+        <v>80</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>524</v>
+        <v>80</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -11041,7 +11083,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -11062,10 +11104,10 @@
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>525</v>
+        <v>134</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -11076,10 +11118,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11090,7 +11132,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
@@ -11099,20 +11141,18 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>531</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -11161,7 +11201,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -11179,27 +11219,27 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>532</v>
+        <v>80</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>533</v>
+        <v>134</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>534</v>
+        <v>508</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>535</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>536</v>
+        <v>509</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>536</v>
+        <v>509</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11207,7 +11247,7 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>91</v>
@@ -11219,20 +11259,18 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>537</v>
+        <v>510</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>540</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -11281,10 +11319,10 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>536</v>
+        <v>513</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>91</v>
@@ -11299,27 +11337,27 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>541</v>
+        <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>542</v>
+        <v>134</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>543</v>
+        <v>514</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>544</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11330,7 +11368,7 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
@@ -11342,20 +11380,18 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>546</v>
+        <v>194</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>548</v>
+        <v>517</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>550</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>80</v>
       </c>
@@ -11379,13 +11415,13 @@
         <v>80</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>80</v>
+        <v>519</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>80</v>
+        <v>520</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>80</v>
+        <v>521</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>80</v>
@@ -11403,45 +11439,45 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>551</v>
+        <v>103</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>80</v>
+        <v>522</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>552</v>
+        <v>523</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>553</v>
+        <v>524</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>80</v>
+        <v>525</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>554</v>
+        <v>526</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>554</v>
+        <v>526</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11556,10 +11592,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>555</v>
+        <v>527</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>555</v>
+        <v>527</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11629,16 +11665,16 @@
         <v>80</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>218</v>
@@ -11676,45 +11712,45 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>556</v>
+        <v>528</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>556</v>
+        <v>528</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>557</v>
+        <v>80</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>136</v>
+        <v>221</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>558</v>
+        <v>222</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>559</v>
+        <v>223</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>151</v>
+        <v>224</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>152</v>
+        <v>225</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>80</v>
@@ -11763,7 +11799,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>560</v>
+        <v>226</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11775,7 +11811,7 @@
         <v>80</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>80</v>
@@ -11784,10 +11820,10 @@
         <v>80</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>134</v>
+        <v>228</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>80</v>
@@ -11798,10 +11834,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>561</v>
+        <v>529</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>561</v>
+        <v>529</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11821,19 +11857,23 @@
         <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>562</v>
+        <v>208</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>563</v>
+        <v>280</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11881,7 +11921,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>561</v>
+        <v>284</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11890,7 +11930,7 @@
         <v>91</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>565</v>
+        <v>80</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>103</v>
@@ -11902,10 +11942,10 @@
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>566</v>
+        <v>285</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>567</v>
+        <v>286</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>80</v>
@@ -11916,10 +11956,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>568</v>
+        <v>530</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>568</v>
+        <v>530</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11942,16 +11982,20 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>562</v>
+        <v>194</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>569</v>
+        <v>531</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+        <v>532</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>534</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
       </c>
@@ -11975,13 +12019,13 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>80</v>
+        <v>519</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>80</v>
+        <v>535</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>80</v>
+        <v>536</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -11999,7 +12043,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>568</v>
+        <v>530</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -12008,7 +12052,7 @@
         <v>91</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>565</v>
+        <v>80</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>103</v>
@@ -12020,10 +12064,10 @@
         <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>566</v>
+        <v>537</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>571</v>
+        <v>538</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -12034,10 +12078,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>572</v>
+        <v>539</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>572</v>
+        <v>539</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12060,20 +12104,18 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>194</v>
+        <v>540</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>573</v>
+        <v>541</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>574</v>
+        <v>542</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>576</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>80</v>
       </c>
@@ -12097,13 +12139,13 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>577</v>
+        <v>80</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>578</v>
+        <v>80</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
@@ -12121,7 +12163,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>572</v>
+        <v>539</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -12139,27 +12181,27 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>579</v>
+        <v>544</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>580</v>
+        <v>545</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>472</v>
+        <v>546</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>80</v>
+        <v>547</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>581</v>
+        <v>548</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>581</v>
+        <v>548</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12170,7 +12212,7 @@
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>80</v>
@@ -12182,20 +12224,18 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>194</v>
+        <v>549</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>582</v>
+        <v>550</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>583</v>
+        <v>551</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>585</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>80</v>
       </c>
@@ -12219,13 +12259,13 @@
         <v>80</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>507</v>
+        <v>80</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>586</v>
+        <v>80</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>587</v>
+        <v>80</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>80</v>
@@ -12243,13 +12283,13 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>581</v>
+        <v>548</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>80</v>
@@ -12261,27 +12301,27 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>579</v>
+        <v>553</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>580</v>
+        <v>554</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>472</v>
+        <v>555</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>80</v>
+        <v>556</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>588</v>
+        <v>557</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>588</v>
+        <v>557</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12292,7 +12332,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>80</v>
@@ -12304,17 +12344,19 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>589</v>
+        <v>558</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>590</v>
+        <v>559</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="O83" t="s" s="2">
-        <v>592</v>
+        <v>562</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
@@ -12363,19 +12405,19 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>588</v>
+        <v>557</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>103</v>
+        <v>563</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>80</v>
@@ -12384,10 +12426,10 @@
         <v>80</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>80</v>
+        <v>564</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>593</v>
+        <v>565</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>80</v>
@@ -12398,10 +12440,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12427,10 +12469,10 @@
         <v>208</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>595</v>
+        <v>209</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>596</v>
+        <v>210</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12481,7 +12523,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>594</v>
+        <v>211</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12493,7 +12535,7 @@
         <v>80</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>80</v>
@@ -12502,10 +12544,10 @@
         <v>80</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>566</v>
+        <v>80</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>597</v>
+        <v>212</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
@@ -12516,14 +12558,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>598</v>
+        <v>567</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>598</v>
+        <v>567</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12539,19 +12581,19 @@
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>599</v>
+        <v>136</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>600</v>
+        <v>215</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>601</v>
+        <v>216</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>602</v>
+        <v>151</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12601,7 +12643,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>598</v>
+        <v>218</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12613,7 +12655,7 @@
         <v>80</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>80</v>
@@ -12622,10 +12664,10 @@
         <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>603</v>
+        <v>80</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>604</v>
+        <v>212</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>80</v>
@@ -12636,14 +12678,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>605</v>
+        <v>568</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>605</v>
+        <v>568</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>80</v>
+        <v>569</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12656,24 +12698,26 @@
         <v>80</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>606</v>
+        <v>136</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="O86" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>80</v>
       </c>
@@ -12721,7 +12765,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>605</v>
+        <v>572</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12733,7 +12777,7 @@
         <v>80</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>80</v>
@@ -12742,10 +12786,10 @@
         <v>80</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>603</v>
+        <v>80</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>610</v>
+        <v>134</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>80</v>
@@ -12756,10 +12800,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>611</v>
+        <v>573</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>611</v>
+        <v>573</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12770,32 +12814,28 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>546</v>
+        <v>574</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>612</v>
+        <v>575</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>614</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>80</v>
       </c>
@@ -12843,19 +12883,19 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>611</v>
+        <v>573</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>80</v>
+        <v>577</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>615</v>
+        <v>103</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>80</v>
@@ -12864,10 +12904,10 @@
         <v>80</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>616</v>
+        <v>578</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>617</v>
+        <v>579</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
@@ -12878,10 +12918,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>618</v>
+        <v>580</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>618</v>
+        <v>580</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12904,13 +12944,13 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>208</v>
+        <v>574</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>209</v>
+        <v>581</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>210</v>
+        <v>582</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12961,7 +13001,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>211</v>
+        <v>580</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12970,10 +13010,10 @@
         <v>91</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>80</v>
+        <v>577</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>80</v>
@@ -12982,10 +13022,10 @@
         <v>80</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>80</v>
+        <v>578</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>212</v>
+        <v>583</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>80</v>
@@ -12996,21 +13036,21 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>619</v>
+        <v>584</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>619</v>
+        <v>584</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>80</v>
@@ -13022,18 +13062,20 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>215</v>
+        <v>585</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>216</v>
+        <v>586</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>587</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>588</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>80</v>
       </c>
@@ -13057,13 +13099,13 @@
         <v>80</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>80</v>
+        <v>589</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>80</v>
+        <v>590</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>80</v>
@@ -13081,31 +13123,31 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>218</v>
+        <v>584</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>80</v>
+        <v>591</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>80</v>
+        <v>592</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>212</v>
+        <v>484</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>80</v>
@@ -13116,14 +13158,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>620</v>
+        <v>593</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>620</v>
+        <v>593</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>557</v>
+        <v>80</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13136,25 +13178,25 @@
         <v>80</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>558</v>
+        <v>594</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>559</v>
+        <v>595</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>151</v>
+        <v>596</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>152</v>
+        <v>597</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>80</v>
@@ -13179,13 +13221,13 @@
         <v>80</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>80</v>
+        <v>519</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>80</v>
+        <v>598</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>80</v>
+        <v>599</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>80</v>
@@ -13203,7 +13245,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>560</v>
+        <v>593</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -13215,19 +13257,19 @@
         <v>80</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>80</v>
+        <v>591</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>80</v>
+        <v>592</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>134</v>
+        <v>484</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>80</v>
@@ -13238,10 +13280,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>621</v>
+        <v>600</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>621</v>
+        <v>600</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13249,34 +13291,32 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>194</v>
+        <v>601</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>624</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>625</v>
+        <v>604</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>80</v>
@@ -13301,13 +13341,13 @@
         <v>80</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>80</v>
@@ -13325,10 +13365,10 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>621</v>
+        <v>600</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>91</v>
@@ -13343,16 +13383,16 @@
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>626</v>
+        <v>80</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>299</v>
+        <v>605</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>80</v>
@@ -13360,10 +13400,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13377,29 +13417,25 @@
         <v>91</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>628</v>
+        <v>208</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>629</v>
+        <v>607</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>80</v>
       </c>
@@ -13423,13 +13459,13 @@
         <v>80</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>632</v>
+        <v>80</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>633</v>
+        <v>80</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>80</v>
@@ -13447,7 +13483,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13456,7 +13492,7 @@
         <v>91</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>634</v>
+        <v>80</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>103</v>
@@ -13465,27 +13501,27 @@
         <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>635</v>
+        <v>80</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>398</v>
+        <v>578</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>399</v>
+        <v>609</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>400</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>636</v>
+        <v>610</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>636</v>
+        <v>610</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13496,32 +13532,30 @@
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J93" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="I93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K93" t="s" s="2">
-        <v>194</v>
+        <v>611</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>637</v>
+        <v>612</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>638</v>
+        <v>613</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>80</v>
       </c>
@@ -13545,13 +13579,13 @@
         <v>80</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>458</v>
+        <v>80</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>459</v>
+        <v>80</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>80</v>
@@ -13569,16 +13603,16 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>636</v>
+        <v>610</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>640</v>
+        <v>80</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>103</v>
@@ -13590,10 +13624,10 @@
         <v>80</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>134</v>
+        <v>615</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>461</v>
+        <v>616</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>80</v>
@@ -13604,14 +13638,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>641</v>
+        <v>617</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>641</v>
+        <v>617</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>463</v>
+        <v>80</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13627,23 +13661,21 @@
         <v>80</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>194</v>
+        <v>618</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>464</v>
+        <v>619</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>465</v>
+        <v>620</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>80</v>
       </c>
@@ -13667,13 +13699,13 @@
         <v>80</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>468</v>
+        <v>80</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>469</v>
+        <v>80</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>80</v>
@@ -13691,7 +13723,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>641</v>
+        <v>617</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13709,27 +13741,27 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>470</v>
+        <v>80</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>471</v>
+        <v>615</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>472</v>
+        <v>622</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>473</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13743,28 +13775,28 @@
         <v>79</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>80</v>
+        <v>558</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>643</v>
+        <v>624</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>549</v>
+        <v>625</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>550</v>
+        <v>626</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>80</v>
@@ -13813,7 +13845,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13825,29 +13857,999 @@
         <v>80</v>
       </c>
       <c r="AJ95" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP95" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP96" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP97" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="P98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP98" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AK95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP95" t="s" s="2">
+      <c r="AK99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AP99" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="P100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP100" t="s" s="2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="P101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP101" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="P102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP102" t="s" s="2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP103" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP95">
+  <autoFilter ref="A1:AP103">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13857,7 +14859,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI94">
+  <conditionalFormatting sqref="A2:AI102">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.6.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.1</t>
+    <t>0.6.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3978" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3978" uniqueCount="656">
   <si>
     <t>Property</t>
   </si>
@@ -964,9 +964,6 @@
     <t>Observation.code.coding</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>value:code}
 value:system}</t>
   </si>
@@ -1025,37 +1022,37 @@
     <t>Observation.code.coding.userSelected</t>
   </si>
   <si>
-    <t>Observation.code.coding:ResRateSNOMEDCode</t>
-  </si>
-  <si>
-    <t>ResRateSNOMEDCode</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:ResRateSNOMEDCode.id</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:ResRateSNOMEDCode.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:ResRateSNOMEDCode.system</t>
+    <t>Observation.code.coding:OxygenSatSNOMEDCode</t>
+  </si>
+  <si>
+    <t>OxygenSatSNOMEDCode</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:OxygenSatSNOMEDCode.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:OxygenSatSNOMEDCode.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:OxygenSatSNOMEDCode.system</t>
   </si>
   <si>
     <t>http://snomed.info/sct</t>
   </si>
   <si>
-    <t>Observation.code.coding:ResRateSNOMEDCode.version</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:ResRateSNOMEDCode.code</t>
+    <t>Observation.code.coding:OxygenSatSNOMEDCode.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:OxygenSatSNOMEDCode.code</t>
   </si>
   <si>
     <t>431314004</t>
   </si>
   <si>
-    <t>Observation.code.coding:ResRateSNOMEDCode.display</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:ResRateSNOMEDCode.userSelected</t>
+    <t>Observation.code.coding:OxygenSatSNOMEDCode.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:OxygenSatSNOMEDCode.userSelected</t>
   </si>
   <si>
     <t>Observation.code.text</t>
@@ -2387,9 +2384,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.49609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.96484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.46875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="23.94140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -6175,7 +6172,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>305</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
@@ -6239,7 +6236,7 @@
         <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
@@ -6284,13 +6281,13 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>304</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>80</v>
@@ -6408,10 +6405,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6526,10 +6523,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6646,10 +6643,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6691,7 +6688,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>80</v>
@@ -6768,10 +6765,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6888,10 +6885,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6931,7 +6928,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>80</v>
@@ -7008,10 +7005,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7128,10 +7125,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7250,20 +7247,20 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>304</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>91</v>
@@ -7374,10 +7371,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7492,10 +7489,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7612,10 +7609,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7657,7 +7654,7 @@
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>80</v>
@@ -7734,10 +7731,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7854,10 +7851,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7897,7 +7894,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>80</v>
@@ -7974,10 +7971,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8094,10 +8091,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8216,10 +8213,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8338,10 +8335,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8364,19 +8361,19 @@
         <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8425,7 +8422,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8440,19 +8437,19 @@
         <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AL50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AN50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>80</v>
@@ -8460,10 +8457,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8486,16 +8483,16 @@
         <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8545,7 +8542,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8569,10 +8566,10 @@
         <v>298</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>80</v>
@@ -8580,14 +8577,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8606,19 +8603,19 @@
         <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8667,7 +8664,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8682,19 +8679,19 @@
         <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AL52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AN52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>80</v>
@@ -8702,14 +8699,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8728,19 +8725,19 @@
         <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8789,7 +8786,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8798,25 +8795,25 @@
         <v>91</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AJ53" t="s" s="2">
+      <c r="AK53" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AK53" t="s" s="2">
+      <c r="AL53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AL53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AN53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>80</v>
@@ -8824,10 +8821,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8850,16 +8847,16 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8909,7 +8906,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8930,13 +8927,13 @@
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>80</v>
@@ -8944,10 +8941,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8970,17 +8967,17 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -9017,7 +9014,7 @@
         <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
@@ -9027,7 +9024,7 @@
         <v>140</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -9042,19 +9039,19 @@
         <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AL55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>80</v>
@@ -9062,13 +9059,13 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="C56" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>80</v>
@@ -9090,17 +9087,17 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -9149,7 +9146,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -9164,19 +9161,19 @@
         <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>80</v>
@@ -9184,13 +9181,13 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="C57" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>80</v>
@@ -9212,17 +9209,17 @@
         <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -9271,7 +9268,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9286,19 +9283,19 @@
         <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AL57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>80</v>
@@ -9306,10 +9303,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9332,19 +9329,19 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9381,17 +9378,17 @@
         <v>80</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -9400,7 +9397,7 @@
         <v>91</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>103</v>
@@ -9409,30 +9406,30 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP58" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>412</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="C59" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>80</v>
@@ -9454,19 +9451,19 @@
         <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9515,7 +9512,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9524,7 +9521,7 @@
         <v>91</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>103</v>
@@ -9533,27 +9530,27 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP59" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>412</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9668,10 +9665,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B61" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9788,10 +9785,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9814,19 +9811,19 @@
         <v>92</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9875,7 +9872,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9896,10 +9893,10 @@
         <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
@@ -9910,10 +9907,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9939,20 +9936,20 @@
         <v>111</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q63" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="P63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q63" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>80</v>
@@ -9976,28 +9973,28 @@
         <v>186</v>
       </c>
       <c r="Y63" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="Z63" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="Z63" t="s" s="2">
+      <c r="AA63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF63" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -10018,10 +10015,10 @@
         <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -10032,10 +10029,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B64" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10061,14 +10058,14 @@
         <v>208</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -10117,7 +10114,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -10138,10 +10135,10 @@
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -10152,10 +10149,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10181,63 +10178,63 @@
         <v>105</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF65" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -10246,7 +10243,7 @@
         <v>91</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>103</v>
@@ -10258,10 +10255,10 @@
         <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>80</v>
@@ -10272,10 +10269,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10301,65 +10298,65 @@
         <v>111</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="M66" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF66" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10380,10 +10377,10 @@
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -10394,10 +10391,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10423,16 +10420,16 @@
         <v>194</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -10460,11 +10457,11 @@
         <v>293</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="Z67" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="Z67" t="s" s="2">
-        <v>471</v>
-      </c>
       <c r="AA67" t="s" s="2">
         <v>80</v>
       </c>
@@ -10481,7 +10478,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10490,7 +10487,7 @@
         <v>91</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>103</v>
@@ -10505,7 +10502,7 @@
         <v>134</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -10516,14 +10513,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10545,16 +10542,16 @@
         <v>194</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="N68" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -10582,11 +10579,11 @@
         <v>293</v>
       </c>
       <c r="Y68" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="Z68" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="Z68" t="s" s="2">
-        <v>481</v>
-      </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10603,7 +10600,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10621,27 +10618,27 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AM68" t="s" s="2">
+      <c r="AN68" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="AN68" t="s" s="2">
+      <c r="AO68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP68" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP68" t="s" s="2">
-        <v>485</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10664,19 +10661,19 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10725,7 +10722,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10746,10 +10743,10 @@
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10760,10 +10757,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10878,10 +10875,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10998,10 +10995,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11024,16 +11021,16 @@
         <v>92</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11083,7 +11080,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -11107,7 +11104,7 @@
         <v>134</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -11118,10 +11115,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11144,13 +11141,13 @@
         <v>92</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11201,7 +11198,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -11225,7 +11222,7 @@
         <v>134</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
@@ -11236,10 +11233,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11262,13 +11259,13 @@
         <v>92</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -11319,7 +11316,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>91</v>
@@ -11343,7 +11340,7 @@
         <v>134</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
@@ -11354,10 +11351,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11383,13 +11380,13 @@
         <v>194</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11415,14 +11412,14 @@
         <v>80</v>
       </c>
       <c r="X75" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="Y75" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="Y75" t="s" s="2">
+      <c r="Z75" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="Z75" t="s" s="2">
-        <v>521</v>
-      </c>
       <c r="AA75" t="s" s="2">
         <v>80</v>
       </c>
@@ -11439,7 +11436,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11457,27 +11454,27 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AN75" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="AN75" t="s" s="2">
+      <c r="AO75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP75" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP75" t="s" s="2">
-        <v>525</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11592,10 +11589,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11712,10 +11709,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11834,10 +11831,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11956,10 +11953,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11985,16 +11982,16 @@
         <v>194</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>531</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="N80" t="s" s="2">
+      <c r="O80" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -12019,14 +12016,14 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Y80" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="Z80" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="Z80" t="s" s="2">
-        <v>536</v>
-      </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
       </c>
@@ -12043,7 +12040,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -12064,10 +12061,10 @@
         <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -12078,10 +12075,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12104,16 +12101,16 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -12163,7 +12160,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -12181,27 +12178,27 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="AM81" t="s" s="2">
+      <c r="AN81" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="AN81" t="s" s="2">
+      <c r="AO81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP81" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP81" t="s" s="2">
-        <v>547</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12224,16 +12221,16 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12283,7 +12280,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -12301,27 +12298,27 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="AM82" t="s" s="2">
+      <c r="AN82" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="AN82" t="s" s="2">
+      <c r="AO82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP82" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP82" t="s" s="2">
-        <v>556</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12344,19 +12341,19 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="N83" t="s" s="2">
+      <c r="O83" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
@@ -12405,7 +12402,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -12417,19 +12414,19 @@
         <v>80</v>
       </c>
       <c r="AJ83" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="AK83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>80</v>
@@ -12440,10 +12437,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12558,10 +12555,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12678,14 +12675,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12707,10 +12704,10 @@
         <v>136</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="N86" t="s" s="2">
         <v>151</v>
@@ -12765,7 +12762,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12800,10 +12797,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12826,13 +12823,13 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12883,7 +12880,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12892,7 +12889,7 @@
         <v>91</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>103</v>
@@ -12904,10 +12901,10 @@
         <v>80</v>
       </c>
       <c r="AM87" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
@@ -12918,10 +12915,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12944,13 +12941,13 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -13001,7 +12998,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -13010,7 +13007,7 @@
         <v>91</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>103</v>
@@ -13022,10 +13019,10 @@
         <v>80</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>80</v>
@@ -13036,10 +13033,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13065,16 +13062,16 @@
         <v>194</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="N89" t="s" s="2">
+      <c r="O89" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>80</v>
@@ -13102,11 +13099,11 @@
         <v>115</v>
       </c>
       <c r="Y89" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="Z89" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="Z89" t="s" s="2">
-        <v>590</v>
-      </c>
       <c r="AA89" t="s" s="2">
         <v>80</v>
       </c>
@@ -13123,7 +13120,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -13141,13 +13138,13 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AM89" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="AM89" t="s" s="2">
-        <v>592</v>
-      </c>
       <c r="AN89" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>80</v>
@@ -13158,10 +13155,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13187,16 +13184,16 @@
         <v>194</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="N90" t="s" s="2">
+      <c r="O90" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>80</v>
@@ -13221,14 +13218,14 @@
         <v>80</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Y90" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="Z90" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="Z90" t="s" s="2">
-        <v>599</v>
-      </c>
       <c r="AA90" t="s" s="2">
         <v>80</v>
       </c>
@@ -13245,7 +13242,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -13263,13 +13260,13 @@
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AM90" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="AM90" t="s" s="2">
-        <v>592</v>
-      </c>
       <c r="AN90" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>80</v>
@@ -13280,10 +13277,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13306,17 +13303,17 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>601</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>80</v>
@@ -13365,7 +13362,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -13389,7 +13386,7 @@
         <v>80</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>80</v>
@@ -13400,10 +13397,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13429,10 +13426,10 @@
         <v>208</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13483,7 +13480,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13504,10 +13501,10 @@
         <v>80</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>80</v>
@@ -13518,10 +13515,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13544,16 +13541,16 @@
         <v>92</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>613</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13603,7 +13600,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13624,10 +13621,10 @@
         <v>80</v>
       </c>
       <c r="AM93" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AN93" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>80</v>
@@ -13638,10 +13635,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13664,16 +13661,16 @@
         <v>92</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13723,7 +13720,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13744,10 +13741,10 @@
         <v>80</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>80</v>
@@ -13758,10 +13755,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13784,19 +13781,19 @@
         <v>92</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="N95" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="M95" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="N95" t="s" s="2">
+      <c r="O95" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>626</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>80</v>
@@ -13845,7 +13842,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13857,19 +13854,19 @@
         <v>80</v>
       </c>
       <c r="AJ95" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM95" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="AK95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM95" t="s" s="2">
+      <c r="AN95" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
@@ -13880,10 +13877,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13998,10 +13995,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14118,14 +14115,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -14147,10 +14144,10 @@
         <v>136</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="N98" t="s" s="2">
         <v>151</v>
@@ -14205,7 +14202,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -14240,10 +14237,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14269,16 +14266,16 @@
         <v>194</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="M99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="N99" t="s" s="2">
+      <c r="O99" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>637</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>80</v>
@@ -14327,7 +14324,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>91</v>
@@ -14345,7 +14342,7 @@
         <v>80</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>298</v>
@@ -14362,10 +14359,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14388,19 +14385,19 @@
         <v>92</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="M100" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="N100" t="s" s="2">
-        <v>643</v>
-      </c>
       <c r="O100" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>80</v>
@@ -14428,11 +14425,11 @@
         <v>186</v>
       </c>
       <c r="Y100" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="Z100" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="Z100" t="s" s="2">
-        <v>645</v>
-      </c>
       <c r="AA100" t="s" s="2">
         <v>80</v>
       </c>
@@ -14449,7 +14446,7 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -14458,7 +14455,7 @@
         <v>91</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>103</v>
@@ -14467,27 +14464,27 @@
         <v>80</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AM100" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AN100" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AN100" t="s" s="2">
+      <c r="AO100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP100" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP100" t="s" s="2">
-        <v>412</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14513,16 +14510,16 @@
         <v>194</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="N101" t="s" s="2">
-        <v>651</v>
-      </c>
       <c r="O101" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>80</v>
@@ -14550,11 +14547,11 @@
         <v>293</v>
       </c>
       <c r="Y101" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="Z101" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="Z101" t="s" s="2">
-        <v>471</v>
-      </c>
       <c r="AA101" t="s" s="2">
         <v>80</v>
       </c>
@@ -14571,7 +14568,7 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -14580,7 +14577,7 @@
         <v>91</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>103</v>
@@ -14595,7 +14592,7 @@
         <v>134</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>80</v>
@@ -14606,14 +14603,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14635,16 +14632,16 @@
         <v>194</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="N102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>80</v>
@@ -14672,11 +14669,11 @@
         <v>293</v>
       </c>
       <c r="Y102" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="Z102" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="Z102" t="s" s="2">
-        <v>481</v>
-      </c>
       <c r="AA102" t="s" s="2">
         <v>80</v>
       </c>
@@ -14693,7 +14690,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14711,27 +14708,27 @@
         <v>80</v>
       </c>
       <c r="AL102" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AM102" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AM102" t="s" s="2">
+      <c r="AN102" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="AN102" t="s" s="2">
+      <c r="AO102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP102" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP102" t="s" s="2">
-        <v>485</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14757,16 +14754,16 @@
         <v>80</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="M103" t="s" s="2">
-        <v>656</v>
-      </c>
       <c r="N103" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="O103" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>80</v>
@@ -14815,7 +14812,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -14836,10 +14833,10 @@
         <v>80</v>
       </c>
       <c r="AM103" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AN103" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>80</v>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.2</t>
+    <t>0.7.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.1</t>
+    <t>0.7.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$95</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3978" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3676" uniqueCount="638">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.2</t>
+    <t>0.7.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -473,10 +473,33 @@
 </t>
   </si>
   <si>
+    <t>the amount of oxygen available to the subject at that moment</t>
+  </si>
+  <si>
+    <t>Details of the amount of oxygen available to the subject at the time of observation.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>Observation.extension:confoundingFactor</t>
+  </si>
+  <si>
+    <t>confoundingFactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationConfoundingFactor}
+</t>
+  </si>
+  <si>
+    <t>Additional issues or factors that may impact for the measurement</t>
+  </si>
+  <si>
+    <t>Comment on and record other incidental factors that may be affect interpretation of the observation.
+Comment: For example, motion, pain, poor perfusion, infant feeding, peripheral hypothermia, sedation..</t>
+  </si>
+  <si>
     <t>Observation.modifierExtension</t>
   </si>
   <si>
@@ -574,7 +597,7 @@
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
   </si>
   <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  Notes below for guidance on referencing another Observation.</t>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -1102,7 +1125,7 @@
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.</t>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/extension-observation-focuscode.html).</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -1160,7 +1183,7 @@
     <t>Often just a dateTime for Vital Signs.</t>
   </si>
   <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the Timing datatype which allow the measurement to be tied to regular life events.</t>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
@@ -1199,7 +1222,7 @@
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
   </si>
   <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the `lastUpdated`  time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
   </si>
   <si>
     <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
@@ -1551,72 +1574,6 @@
     <t>subjectOf.observationEvent[code="annotation"].value</t>
   </si>
   <si>
-    <t>Observation.note.id</t>
-  </si>
-  <si>
-    <t>Observation.note.extension</t>
-  </si>
-  <si>
-    <t>Observation.note.author[x]</t>
-  </si>
-  <si>
-    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
-string</t>
-  </si>
-  <si>
-    <t>Individual responsible for the annotation</t>
-  </si>
-  <si>
-    <t>The individual responsible for making the annotation.</t>
-  </si>
-  <si>
-    <t>Organization is used when there's no need for specific attribution as to who made the comment.</t>
-  </si>
-  <si>
-    <t>Annotation.author[x]</t>
-  </si>
-  <si>
-    <t>Act.participant[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>Observation.note.time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When the annotation was made</t>
-  </si>
-  <si>
-    <t>Indicates when this particular annotation was made.</t>
-  </si>
-  <si>
-    <t>Annotation.time</t>
-  </si>
-  <si>
-    <t>Act.effectiveTime</t>
-  </si>
-  <si>
-    <t>Observation.note.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">markdown
-</t>
-  </si>
-  <si>
-    <t>The annotation  - text content (as markdown)</t>
-  </si>
-  <si>
-    <t>The text of the annotation in markdown format.</t>
-  </si>
-  <si>
-    <t>Annotation.text</t>
-  </si>
-  <si>
-    <t>Act.text</t>
-  </si>
-  <si>
     <t>Observation.bodySite</t>
   </si>
   <si>
@@ -1626,7 +1583,8 @@
     <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
   </si>
   <si>
-    <t>Here bodySite.test only used from Codeableconcept datatype</t>
+    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/extension-bodysite.html).</t>
   </si>
   <si>
     <t>example</t>
@@ -1648,18 +1606,6 @@
   </si>
   <si>
     <t>718497002 |Inherent location|</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.id</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.extension</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.coding</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.text</t>
   </si>
   <si>
     <t>Observation.method</t>
@@ -1930,7 +1876,7 @@
     <t>Used when reporting vital signs panel components.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see Notes below.  Note that a system may calculate results from QuestionnaireResponse into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1952,7 +1898,7 @@
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
-    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see Notes below.</t>
+    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -1964,7 +1910,7 @@
     <t>Used when reporting systolic and diastolic blood pressure.</t>
   </si>
   <si>
-    <t>For a discussion on the ways Observations can be assembled in groups together see Notes below.</t>
+    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/observation.html#notes) below.</t>
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
@@ -2375,7 +2321,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP103"/>
+  <dimension ref="A1:AP95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3542,10 +3488,10 @@
         <v>145</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3605,7 +3551,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>142</v>
@@ -3631,46 +3577,44 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>80</v>
       </c>
@@ -3718,7 +3662,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -3727,7 +3671,7 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>142</v>
@@ -3760,7 +3704,7 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3773,13 +3717,13 @@
         <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>156</v>
@@ -3787,9 +3731,11 @@
       <c r="M12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="N12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>80</v>
@@ -3838,7 +3784,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3850,22 +3796,22 @@
         <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>80</v>
@@ -3873,14 +3819,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>164</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3899,17 +3845,17 @@
         <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>80</v>
@@ -3958,7 +3904,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3973,19 +3919,19 @@
         <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AO13" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>80</v>
@@ -3993,14 +3939,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -4019,18 +3965,18 @@
         <v>92</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>80</v>
       </c>
@@ -4078,7 +4024,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -4093,16 +4039,16 @@
         <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AN14" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>80</v>
@@ -4113,33 +4059,33 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>182</v>
@@ -4150,9 +4096,7 @@
       <c r="N15" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="O15" t="s" s="2">
-        <v>185</v>
-      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>80</v>
       </c>
@@ -4176,11 +4120,13 @@
         <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z15" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>80</v>
@@ -4198,13 +4144,13 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>80</v>
@@ -4213,19 +4159,19 @@
         <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>80</v>
@@ -4233,10 +4179,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4247,31 +4193,31 @@
         <v>91</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>92</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>194</v>
+        <v>111</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -4296,35 +4242,35 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AC16" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>80</v>
@@ -4333,19 +4279,19 @@
         <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>80</v>
@@ -4353,14 +4299,12 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>80</v>
       </c>
@@ -4369,7 +4313,7 @@
         <v>91</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>92</v>
@@ -4381,19 +4325,19 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -4421,28 +4365,26 @@
         <v>115</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Z17" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AC17" s="2"/>
+      <c r="AD17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -4466,10 +4408,10 @@
         <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>80</v>
@@ -4477,24 +4419,26 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>80</v>
@@ -4503,16 +4447,20 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
       </c>
@@ -4536,13 +4484,13 @@
         <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>80</v>
@@ -4560,19 +4508,19 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -4584,10 +4532,10 @@
         <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>80</v>
@@ -4602,14 +4550,14 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
@@ -4621,17 +4569,15 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4668,16 +4614,16 @@
         <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>218</v>
@@ -4686,13 +4632,13 @@
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>80</v>
@@ -4704,7 +4650,7 @@
         <v>80</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>80</v>
@@ -4715,33 +4661,33 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>222</v>
@@ -4750,11 +4696,9 @@
         <v>223</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -4790,19 +4734,19 @@
         <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4814,7 +4758,7 @@
         <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
@@ -4823,10 +4767,10 @@
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>80</v>
@@ -4837,10 +4781,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4848,31 +4792,35 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4920,19 +4868,19 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
@@ -4941,10 +4889,10 @@
         <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
@@ -4955,21 +4903,21 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4981,17 +4929,15 @@
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -5028,16 +4974,16 @@
         <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>218</v>
@@ -5046,13 +4992,13 @@
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
@@ -5064,7 +5010,7 @@
         <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -5075,52 +5021,50 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>80</v>
@@ -5150,31 +5094,31 @@
         <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>80</v>
@@ -5183,10 +5127,10 @@
         <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -5197,10 +5141,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5208,13 +5152,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>80</v>
@@ -5223,24 +5167,26 @@
         <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="O24" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>80</v>
@@ -5282,7 +5228,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -5303,10 +5249,10 @@
         <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>80</v>
@@ -5317,10 +5263,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5328,13 +5274,13 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>80</v>
@@ -5343,24 +5289,24 @@
         <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>111</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>255</v>
-      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>80</v>
@@ -5402,7 +5348,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5423,10 +5369,10 @@
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -5437,10 +5383,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5448,13 +5394,13 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>80</v>
@@ -5463,24 +5409,24 @@
         <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>208</v>
+        <v>111</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>80</v>
@@ -5522,7 +5468,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5543,10 +5489,10 @@
         <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -5557,10 +5503,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5583,19 +5529,17 @@
         <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -5644,7 +5588,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5665,10 +5609,10 @@
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -5679,10 +5623,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5705,19 +5649,19 @@
         <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>208</v>
+        <v>277</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5766,7 +5710,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5787,10 +5731,10 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -5801,24 +5745,24 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>80</v>
@@ -5827,19 +5771,19 @@
         <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -5864,13 +5808,13 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
@@ -5888,10 +5832,10 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>91</v>
@@ -5903,62 +5847,66 @@
         <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>301</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>80</v>
+        <v>295</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>209</v>
+        <v>296</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5982,13 +5930,13 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>80</v>
+        <v>301</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -6006,10 +5954,10 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>211</v>
+        <v>294</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>91</v>
@@ -6018,44 +5966,44 @@
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>80</v>
+        <v>304</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -6067,17 +6015,15 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -6114,16 +6060,16 @@
         <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>218</v>
@@ -6132,13 +6078,13 @@
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
@@ -6150,7 +6096,7 @@
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>80</v>
@@ -6161,18 +6107,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
@@ -6184,10 +6130,10 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>222</v>
@@ -6196,11 +6142,9 @@
         <v>223</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -6236,9 +6180,11 @@
         <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AC32" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="AD32" t="s" s="2">
         <v>80</v>
       </c>
@@ -6246,7 +6192,7 @@
         <v>140</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -6258,7 +6204,7 @@
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -6267,10 +6213,10 @@
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -6281,14 +6227,12 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
         <v>80</v>
       </c>
@@ -6297,7 +6241,7 @@
         <v>91</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -6309,19 +6253,19 @@
         <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -6358,19 +6302,17 @@
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6391,10 +6333,10 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -6405,18 +6347,20 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>91</v>
@@ -6428,19 +6372,23 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6488,19 +6436,19 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
@@ -6509,10 +6457,10 @@
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
@@ -6523,21 +6471,21 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -6549,17 +6497,15 @@
         <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6596,16 +6542,16 @@
         <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>218</v>
@@ -6614,13 +6560,13 @@
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
@@ -6632,7 +6578,7 @@
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -6643,21 +6589,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -6666,29 +6612,27 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>314</v>
+        <v>80</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>80</v>
@@ -6718,31 +6662,31 @@
         <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
@@ -6751,10 +6695,10 @@
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
@@ -6765,10 +6709,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6776,7 +6720,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>91</v>
@@ -6791,24 +6735,26 @@
         <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="O37" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>80</v>
+        <v>321</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>80</v>
@@ -6850,7 +6796,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6871,10 +6817,10 @@
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6885,10 +6831,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6896,7 +6842,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>91</v>
@@ -6911,24 +6857,24 @@
         <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>111</v>
+        <v>215</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>255</v>
-      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>80</v>
@@ -6970,7 +6916,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6991,10 +6937,10 @@
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -7005,10 +6951,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7016,7 +6962,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>91</v>
@@ -7031,24 +6977,24 @@
         <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>208</v>
+        <v>111</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>80</v>
@@ -7090,7 +7036,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -7111,10 +7057,10 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -7125,10 +7071,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7151,19 +7097,17 @@
         <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -7212,7 +7156,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -7233,10 +7177,10 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -7247,14 +7191,12 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
         <v>80</v>
       </c>
@@ -7275,19 +7217,19 @@
         <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>223</v>
+        <v>279</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>225</v>
+        <v>281</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -7336,13 +7278,13 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>226</v>
+        <v>282</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
@@ -7357,10 +7299,10 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>227</v>
+        <v>283</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -7371,12 +7313,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>80</v>
       </c>
@@ -7394,19 +7338,23 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -7454,19 +7402,19 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
@@ -7475,10 +7423,10 @@
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -7489,21 +7437,21 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
@@ -7515,17 +7463,15 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -7562,16 +7508,16 @@
         <v>80</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>218</v>
@@ -7580,13 +7526,13 @@
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
@@ -7598,7 +7544,7 @@
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>80</v>
@@ -7609,21 +7555,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -7632,29 +7578,27 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>329</v>
+        <v>80</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>80</v>
@@ -7684,31 +7628,31 @@
         <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
@@ -7717,10 +7661,10 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7731,10 +7675,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7742,7 +7686,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>91</v>
@@ -7757,24 +7701,26 @@
         <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="O45" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>80</v>
+        <v>336</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>80</v>
@@ -7816,7 +7762,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7837,10 +7783,10 @@
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7851,10 +7797,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7862,7 +7808,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>91</v>
@@ -7877,24 +7823,24 @@
         <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>111</v>
+        <v>215</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>255</v>
-      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>80</v>
@@ -7936,7 +7882,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7957,10 +7903,10 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7971,10 +7917,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7982,7 +7928,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>91</v>
@@ -7997,24 +7943,24 @@
         <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>208</v>
+        <v>111</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>80</v>
@@ -8056,7 +8002,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -8077,10 +8023,10 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -8091,10 +8037,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8117,19 +8063,17 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -8178,7 +8122,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -8199,10 +8143,10 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -8213,10 +8157,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8239,19 +8183,19 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>208</v>
+        <v>277</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -8300,7 +8244,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -8321,10 +8265,10 @@
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -8335,10 +8279,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8346,13 +8290,13 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>80</v>
@@ -8361,19 +8305,19 @@
         <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>337</v>
+        <v>215</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>338</v>
+        <v>287</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>339</v>
+        <v>288</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>340</v>
+        <v>289</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>341</v>
+        <v>290</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8422,7 +8366,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8437,19 +8381,19 @@
         <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>343</v>
+        <v>292</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>344</v>
+        <v>293</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>345</v>
+        <v>80</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>80</v>
@@ -8457,10 +8401,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8468,13 +8412,13 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>80</v>
@@ -8483,18 +8427,20 @@
         <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8542,13 +8488,13 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
@@ -8557,19 +8503,19 @@
         <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>351</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>80</v>
@@ -8577,21 +8523,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -8614,9 +8560,7 @@
       <c r="N52" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="O52" t="s" s="2">
-        <v>358</v>
-      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8664,13 +8608,13 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
@@ -8679,19 +8623,19 @@
         <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>360</v>
+        <v>305</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>80</v>
@@ -8699,24 +8643,24 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>80</v>
@@ -8725,19 +8669,19 @@
         <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="O53" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8786,7 +8730,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8795,25 +8739,25 @@
         <v>91</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>371</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>80</v>
@@ -8821,24 +8765,24 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>80</v>
@@ -8847,18 +8791,20 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8906,7 +8852,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8915,25 +8861,25 @@
         <v>91</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>103</v>
+        <v>378</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>80</v>
@@ -8941,10 +8887,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8955,7 +8901,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8967,18 +8913,18 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>388</v>
-      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
@@ -9014,23 +8960,25 @@
         <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AC55" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
@@ -9039,19 +8987,19 @@
         <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AO55" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>80</v>
@@ -9059,14 +9007,12 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>80</v>
       </c>
@@ -9087,17 +9033,17 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -9134,19 +9080,17 @@
         <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -9161,19 +9105,19 @@
         <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>80</v>
@@ -9181,13 +9125,13 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>80</v>
@@ -9209,17 +9153,17 @@
         <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -9268,7 +9212,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9283,19 +9227,19 @@
         <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>80</v>
@@ -9303,12 +9247,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="D58" t="s" s="2">
         <v>80</v>
       </c>
@@ -9317,10 +9263,10 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>80</v>
@@ -9329,19 +9275,17 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9378,59 +9322,59 @@
         <v>80</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AC58" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>406</v>
+        <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>407</v>
+        <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>408</v>
+        <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>411</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
         <v>80</v>
       </c>
@@ -9451,19 +9395,19 @@
         <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9500,19 +9444,17 @@
         <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9521,7 +9463,7 @@
         <v>91</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>103</v>
@@ -9530,29 +9472,31 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="D60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9564,25 +9508,29 @@
         <v>91</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>208</v>
+        <v>408</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>209</v>
+        <v>409</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9630,7 +9578,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>211</v>
+        <v>407</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9639,47 +9587,47 @@
         <v>91</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>80</v>
+        <v>414</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>80</v>
+        <v>415</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>212</v>
+        <v>417</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -9691,17 +9639,15 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>136</v>
+        <v>215</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9738,16 +9684,16 @@
         <v>80</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>218</v>
@@ -9756,13 +9702,13 @@
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
@@ -9774,7 +9720,7 @@
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
@@ -9785,46 +9731,44 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>420</v>
+        <v>136</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>421</v>
+        <v>222</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>422</v>
+        <v>223</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9860,31 +9804,31 @@
         <v>80</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>425</v>
+        <v>225</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
@@ -9893,10 +9837,10 @@
         <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>426</v>
+        <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>427</v>
+        <v>219</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
@@ -9907,10 +9851,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9918,83 +9862,83 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>111</v>
+        <v>427</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
+      <c r="P63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF63" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="P63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q63" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -10015,10 +9959,10 @@
         <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -10029,10 +9973,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10040,81 +9984,83 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I64" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>208</v>
+        <v>111</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q64" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF64" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="P64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -10135,10 +10081,10 @@
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -10149,10 +10095,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10175,24 +10121,24 @@
         <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
-        <v>452</v>
+        <v>80</v>
       </c>
       <c r="S65" t="s" s="2">
         <v>80</v>
@@ -10234,7 +10180,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -10243,7 +10189,7 @@
         <v>91</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>454</v>
+        <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>103</v>
@@ -10255,10 +10201,10 @@
         <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>80</v>
@@ -10269,10 +10215,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10295,26 +10241,24 @@
         <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>80</v>
@@ -10356,7 +10300,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10365,7 +10309,7 @@
         <v>91</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>80</v>
+        <v>461</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>103</v>
@@ -10377,10 +10321,10 @@
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -10391,7 +10335,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>464</v>
@@ -10402,7 +10346,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>91</v>
@@ -10414,29 +10358,29 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>194</v>
+        <v>111</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>465</v>
       </c>
       <c r="M67" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
-        <v>80</v>
+        <v>468</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>80</v>
@@ -10454,31 +10398,31 @@
         <v>80</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF67" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10487,7 +10431,7 @@
         <v>91</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>471</v>
+        <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>103</v>
@@ -10499,10 +10443,10 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>134</v>
+        <v>452</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -10513,24 +10457,24 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>474</v>
+        <v>80</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>80</v>
@@ -10539,19 +10483,19 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="O68" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -10576,13 +10520,13 @@
         <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
@@ -10600,16 +10544,16 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>80</v>
+        <v>478</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>103</v>
@@ -10618,31 +10562,31 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>481</v>
+        <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>482</v>
+        <v>134</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>484</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>80</v>
+        <v>481</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10661,19 +10605,19 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>486</v>
+        <v>201</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10698,13 +10642,13 @@
         <v>80</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>80</v>
+        <v>486</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>80</v>
+        <v>487</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>80</v>
@@ -10722,7 +10666,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10740,27 +10684,27 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>80</v>
+        <v>488</v>
       </c>
       <c r="AM69" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP69" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP69" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10771,7 +10715,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>80</v>
@@ -10783,16 +10727,20 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>208</v>
+        <v>493</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>209</v>
+        <v>494</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>497</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10840,19 +10788,19 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>211</v>
+        <v>492</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>80</v>
@@ -10861,10 +10809,10 @@
         <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>80</v>
+        <v>498</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>212</v>
+        <v>499</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10875,21 +10823,21 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>80</v>
@@ -10901,16 +10849,16 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>215</v>
+        <v>501</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>216</v>
+        <v>502</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>151</v>
+        <v>503</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10936,69 +10884,69 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>80</v>
+        <v>504</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>80</v>
+        <v>505</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>80</v>
+        <v>506</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>218</v>
+        <v>500</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>80</v>
+        <v>507</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>80</v>
+        <v>508</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>212</v>
+        <v>509</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>80</v>
+        <v>510</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>495</v>
+        <v>511</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11009,7 +10957,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
@@ -11018,21 +10966,23 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>496</v>
+        <v>201</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>514</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
       </c>
@@ -11056,13 +11006,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>80</v>
+        <v>504</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>80</v>
+        <v>516</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>80</v>
+        <v>517</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -11080,7 +11030,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -11101,10 +11051,10 @@
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>134</v>
+        <v>518</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -11115,10 +11065,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11129,7 +11079,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
@@ -11138,18 +11088,20 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>504</v>
+        <v>522</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -11198,7 +11150,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -11216,27 +11168,27 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>80</v>
+        <v>525</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>134</v>
+        <v>526</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>80</v>
+        <v>528</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11244,7 +11196,7 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>91</v>
@@ -11256,18 +11208,20 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>509</v>
+        <v>530</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>532</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -11316,10 +11270,10 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>91</v>
@@ -11334,27 +11288,27 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>80</v>
+        <v>534</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>134</v>
+        <v>535</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>513</v>
+        <v>536</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>80</v>
+        <v>537</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11365,7 +11319,7 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
@@ -11377,18 +11331,20 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>194</v>
+        <v>539</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>515</v>
+        <v>540</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="O75" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>80</v>
       </c>
@@ -11412,13 +11368,13 @@
         <v>80</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>518</v>
+        <v>80</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>519</v>
+        <v>80</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>520</v>
+        <v>80</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>80</v>
@@ -11436,45 +11392,45 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>103</v>
+        <v>544</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>521</v>
+        <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>524</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11497,13 +11453,13 @@
         <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11554,7 +11510,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11578,7 +11534,7 @@
         <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>80</v>
@@ -11589,14 +11545,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>526</v>
+        <v>548</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>526</v>
+        <v>548</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11618,13 +11574,13 @@
         <v>136</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11662,19 +11618,19 @@
         <v>80</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11698,7 +11654,7 @@
         <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>80</v>
@@ -11709,45 +11665,45 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>527</v>
+        <v>549</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>527</v>
+        <v>549</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>80</v>
+        <v>550</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>222</v>
+        <v>551</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>223</v>
+        <v>552</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>224</v>
+        <v>158</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>225</v>
+        <v>159</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>80</v>
@@ -11796,7 +11752,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>226</v>
+        <v>553</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11808,7 +11764,7 @@
         <v>80</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>80</v>
@@ -11817,10 +11773,10 @@
         <v>80</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>228</v>
+        <v>134</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>80</v>
@@ -11831,10 +11787,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11854,23 +11810,19 @@
         <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>208</v>
+        <v>555</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>280</v>
+        <v>556</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11918,7 +11870,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>284</v>
+        <v>554</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11927,7 +11879,7 @@
         <v>91</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>80</v>
+        <v>558</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>103</v>
@@ -11939,10 +11891,10 @@
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>285</v>
+        <v>559</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>286</v>
+        <v>560</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>80</v>
@@ -11953,10 +11905,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>529</v>
+        <v>561</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>529</v>
+        <v>561</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11979,20 +11931,16 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>194</v>
+        <v>555</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>530</v>
+        <v>562</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>80</v>
       </c>
@@ -12016,13 +11964,13 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>518</v>
+        <v>80</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>534</v>
+        <v>80</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>535</v>
+        <v>80</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -12040,7 +11988,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>529</v>
+        <v>561</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -12049,7 +11997,7 @@
         <v>91</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>80</v>
+        <v>558</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>103</v>
@@ -12061,10 +12009,10 @@
         <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>537</v>
+        <v>564</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -12075,10 +12023,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12101,18 +12049,20 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>539</v>
+        <v>201</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>540</v>
+        <v>566</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>541</v>
+        <v>567</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>568</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>569</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>80</v>
       </c>
@@ -12136,13 +12086,13 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>80</v>
+        <v>570</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>80</v>
+        <v>571</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
@@ -12160,7 +12110,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>538</v>
+        <v>565</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -12178,27 +12128,27 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>543</v>
+        <v>572</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>544</v>
+        <v>573</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>545</v>
+        <v>490</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>546</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12209,7 +12159,7 @@
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>80</v>
@@ -12221,18 +12171,20 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>548</v>
+        <v>201</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>549</v>
+        <v>575</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>550</v>
+        <v>576</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O82" s="2"/>
+        <v>577</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>578</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>80</v>
       </c>
@@ -12256,13 +12208,13 @@
         <v>80</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>80</v>
+        <v>504</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>80</v>
+        <v>579</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>80</v>
@@ -12280,13 +12232,13 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>80</v>
@@ -12298,27 +12250,27 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>553</v>
+        <v>573</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>554</v>
+        <v>490</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>555</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>556</v>
+        <v>581</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>556</v>
+        <v>581</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12329,7 +12281,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>80</v>
@@ -12341,19 +12293,17 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>557</v>
+        <v>582</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>558</v>
+        <v>583</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>560</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
@@ -12402,19 +12352,19 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>556</v>
+        <v>581</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>562</v>
+        <v>103</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>80</v>
@@ -12423,10 +12373,10 @@
         <v>80</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>563</v>
+        <v>80</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>564</v>
+        <v>586</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>80</v>
@@ -12437,10 +12387,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>565</v>
+        <v>587</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>565</v>
+        <v>587</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12463,13 +12413,13 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>209</v>
+        <v>588</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>210</v>
+        <v>589</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -12520,7 +12470,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>211</v>
+        <v>587</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12532,7 +12482,7 @@
         <v>80</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>80</v>
@@ -12541,10 +12491,10 @@
         <v>80</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>80</v>
+        <v>559</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>212</v>
+        <v>590</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
@@ -12555,14 +12505,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>566</v>
+        <v>591</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>566</v>
+        <v>591</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12578,19 +12528,19 @@
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>136</v>
+        <v>592</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>215</v>
+        <v>593</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>216</v>
+        <v>594</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>151</v>
+        <v>595</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12640,7 +12590,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>218</v>
+        <v>591</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12652,7 +12602,7 @@
         <v>80</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>80</v>
@@ -12661,10 +12611,10 @@
         <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>80</v>
+        <v>596</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>212</v>
+        <v>597</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>80</v>
@@ -12675,14 +12625,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>567</v>
+        <v>598</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>567</v>
+        <v>598</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>568</v>
+        <v>80</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12695,26 +12645,24 @@
         <v>80</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>136</v>
+        <v>599</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>569</v>
+        <v>600</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>570</v>
+        <v>601</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>80</v>
       </c>
@@ -12762,7 +12710,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>571</v>
+        <v>598</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12774,7 +12722,7 @@
         <v>80</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>80</v>
@@ -12783,10 +12731,10 @@
         <v>80</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>80</v>
+        <v>596</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>134</v>
+        <v>603</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>80</v>
@@ -12797,10 +12745,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>572</v>
+        <v>604</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>572</v>
+        <v>604</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12811,28 +12759,32 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>573</v>
+        <v>539</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>574</v>
+        <v>605</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
+        <v>605</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>607</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>80</v>
       </c>
@@ -12880,19 +12832,19 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>572</v>
+        <v>604</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>576</v>
+        <v>80</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>103</v>
+        <v>608</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>80</v>
@@ -12901,10 +12853,10 @@
         <v>80</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
@@ -12915,10 +12867,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>579</v>
+        <v>611</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>579</v>
+        <v>611</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12941,13 +12893,13 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>573</v>
+        <v>215</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>580</v>
+        <v>216</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>581</v>
+        <v>217</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12998,7 +12950,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>579</v>
+        <v>218</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -13007,10 +12959,10 @@
         <v>91</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>576</v>
+        <v>80</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>80</v>
@@ -13019,10 +12971,10 @@
         <v>80</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>577</v>
+        <v>80</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>582</v>
+        <v>219</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>80</v>
@@ -13033,21 +12985,21 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>583</v>
+        <v>612</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>583</v>
+        <v>612</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>80</v>
@@ -13059,20 +13011,18 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>584</v>
+        <v>222</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>585</v>
+        <v>223</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>587</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>80</v>
       </c>
@@ -13096,13 +13046,13 @@
         <v>80</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>588</v>
+        <v>80</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>589</v>
+        <v>80</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>80</v>
@@ -13120,31 +13070,31 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>583</v>
+        <v>225</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>590</v>
+        <v>80</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>591</v>
+        <v>80</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>483</v>
+        <v>219</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>80</v>
@@ -13155,14 +13105,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>80</v>
+        <v>550</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13175,25 +13125,25 @@
         <v>80</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>593</v>
+        <v>551</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>594</v>
+        <v>552</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>595</v>
+        <v>158</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>596</v>
+        <v>159</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>80</v>
@@ -13218,13 +13168,13 @@
         <v>80</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>518</v>
+        <v>80</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>597</v>
+        <v>80</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>598</v>
+        <v>80</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>80</v>
@@ -13242,7 +13192,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>592</v>
+        <v>553</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -13254,19 +13204,19 @@
         <v>80</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>590</v>
+        <v>80</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>591</v>
+        <v>80</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>483</v>
+        <v>134</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>80</v>
@@ -13277,10 +13227,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13288,32 +13238,34 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>600</v>
+        <v>201</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>616</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>617</v>
+      </c>
       <c r="O91" t="s" s="2">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>80</v>
@@ -13338,13 +13290,13 @@
         <v>80</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>80</v>
+        <v>301</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>80</v>
@@ -13362,10 +13314,10 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>91</v>
@@ -13380,16 +13332,16 @@
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>80</v>
+        <v>619</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>604</v>
+        <v>306</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>80</v>
@@ -13397,10 +13349,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13414,25 +13366,29 @@
         <v>91</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>208</v>
+        <v>621</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
+        <v>623</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>80</v>
       </c>
@@ -13456,13 +13412,13 @@
         <v>80</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>80</v>
+        <v>625</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>80</v>
+        <v>626</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>80</v>
@@ -13480,7 +13436,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13489,7 +13445,7 @@
         <v>91</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>80</v>
+        <v>627</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>103</v>
@@ -13498,27 +13454,27 @@
         <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>80</v>
+        <v>628</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>577</v>
+        <v>416</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>608</v>
+        <v>417</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13529,30 +13485,32 @@
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>610</v>
+        <v>201</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="O93" s="2"/>
+        <v>632</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>80</v>
       </c>
@@ -13576,13 +13534,13 @@
         <v>80</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>80</v>
+        <v>476</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>80</v>
+        <v>477</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>80</v>
@@ -13600,16 +13558,16 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>80</v>
+        <v>633</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>103</v>
@@ -13621,10 +13579,10 @@
         <v>80</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>614</v>
+        <v>134</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>615</v>
+        <v>479</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>80</v>
@@ -13635,14 +13593,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>80</v>
+        <v>481</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13658,21 +13616,23 @@
         <v>80</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>617</v>
+        <v>201</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>618</v>
+        <v>482</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>619</v>
+        <v>483</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="O94" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>80</v>
       </c>
@@ -13696,13 +13656,13 @@
         <v>80</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>80</v>
+        <v>486</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>80</v>
+        <v>487</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>80</v>
@@ -13720,7 +13680,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13738,27 +13698,27 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>80</v>
+        <v>488</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>614</v>
+        <v>489</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>621</v>
+        <v>490</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>80</v>
+        <v>491</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13772,28 +13732,28 @@
         <v>79</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>557</v>
+        <v>80</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>624</v>
+        <v>542</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>625</v>
+        <v>543</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>80</v>
@@ -13842,7 +13802,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13854,7 +13814,7 @@
         <v>80</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>626</v>
+        <v>103</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>80</v>
@@ -13863,990 +13823,20 @@
         <v>80</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>627</v>
+        <v>545</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>628</v>
+        <v>546</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP96" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O97" s="2"/>
-      <c r="P97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP97" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="P98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP98" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="P99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AP99" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="P100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP100" t="s" s="2">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="P101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP101" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="P102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q102" s="2"/>
-      <c r="R102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP102" t="s" s="2">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="P103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AO103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP103" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP103">
+  <autoFilter ref="A1:AP95">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14856,7 +13846,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI102">
+  <conditionalFormatting sqref="A2:AI94">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.4</t>
+    <t>0.7.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -13412,7 +13412,7 @@
         <v>80</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>193</v>
+        <v>300</v>
       </c>
       <c r="Y92" t="s" s="2">
         <v>625</v>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.5</t>
+    <t>0.7.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.6</t>
+    <t>0.7.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
@@ -97,7 +97,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>Some content in this profile builds on the blood pressure archetype: Blodtrykk, Publisert arketype [Internet]. openEHR Norge, Nasjonal IKT Clinical Knowledge Manager [sitert: 2024-12-02]. Hentet fra: https://arketyper.no/ckm/archetypes/1078.36.2165</t>
+    <t>Some content in this profile builds on the pulse oximetry archetype: Pulsoksymetri, Publisert arketype [Internet]. openEHR Norge, Nasjonal IKT Clinical Knowledge Manager [sitert: 2024-12-04]. Hentet fra: https://arketyper.no/ckm/archetypes/1078.36.53</t>
   </si>
   <si>
     <t>FHIR Version</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.8</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-05-01</t>
+    <t>2025-01-28</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,7 +85,7 @@
   </si>
   <si>
     <t>Base profile for Norwegian Vital Signs Observation Oxygen Saturation information.  
-Use to record blood oxygen and related measurements, measured by pulse oximetry or pulse CO-oximetry.</t>
+To be used for recording blood oxygen and related measurements, measured by pulse oximetry or pulse CO-oximetry.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -13765,7 +13765,7 @@
         <v>84</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>640</v>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.1</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -13765,7 +13765,7 @@
         <v>84</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>640</v>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -13765,7 +13765,7 @@
         <v>84</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>640</v>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.2</t>
+    <t>0.8.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -84,14 +84,14 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Base profile for Norwegian Vital Signs Observation Oxygen Saturation information.  
+    <t>Domain profile for Norwegian Vital Signs Observation Oxygen Saturation information.  
 To be used for recording blood oxygen and related measurements, measured by pulse oximetry or pulse CO-oximetry.</t>
   </si>
   <si>
     <t>Purpose</t>
   </si>
   <si>
-    <t>Basisprofile for Norwegian  VitalSigns Observation Oxygen Saturation information. Defined by The Norwegian Directorate of eHealth and HL7 Norway. The profile adds Norwegian specific property information and further explanation of the use for the data-elements in a Norwegian VitalSigns Observation Oxygen Saturation.</t>
+    <t>Domain profile for Norwegian  VitalSigns Observation Oxygen Saturation information. Defined by The Norwegian Directorate of health and HL7 Norway. The profile adds Norwegian specific property information and further explanation of the use for the data-elements in a Norwegian VitalSigns Observation Oxygen Saturation.</t>
   </si>
   <si>
     <t>Copyright</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationOxygenSaturation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.3</t>
+    <t>0.8.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -2354,17 +2354,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="59.96484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.94140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.41015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.5234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="179.23828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="153.6640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2373,28 +2373,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.83984375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.5859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
